--- a/analysis/5.1/td_0.18s.xlsx
+++ b/analysis/5.1/td_0.18s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -102,18 +102,18 @@
         <v>10.1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.18000000000000002</v>
       </c>
       <c r="D2">
-        <v>320.72269999999742</v>
+        <v>452.01404000000372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
@@ -122,7 +122,7 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="D3">
-        <v>287.59006666666687</v>
+        <v>320.72269999999742</v>
       </c>
     </row>
     <row r="4">
@@ -130,18 +130,18 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.18000000000000002</v>
       </c>
       <c r="D4">
-        <v>302.76366666667013</v>
+        <v>424.75548000000333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B5">
         <v>1.1000000000000001</v>
@@ -150,12 +150,12 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="D5">
-        <v>255.8035333333309</v>
+        <v>287.59006666666687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
         <v>2.1000000000000001</v>
@@ -164,7 +164,7 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="D6">
-        <v>274.35376000000304</v>
+        <v>302.76366666667013</v>
       </c>
     </row>
     <row r="7">
@@ -172,55 +172,55 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.18000000000000002</v>
       </c>
       <c r="D7">
-        <v>253.76048888888965</v>
+        <v>388.63403999999952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.18000000000000002</v>
       </c>
       <c r="D8">
-        <v>244.82571999999948</v>
+        <v>255.8035333333309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>1.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.18000000000000002</v>
       </c>
       <c r="D9">
-        <v>286.04960000000017</v>
+        <v>274.35376000000304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>2.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.18000000000000002</v>
       </c>
       <c r="D10">
-        <v>250.08947999999913</v>
+        <v>253.76048888888965</v>
       </c>
     </row>
     <row r="11">
@@ -228,13 +228,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B11">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C11">
         <v>0.18000000000000002</v>
       </c>
       <c r="D11">
-        <v>279.55231999999921</v>
+        <v>244.82571999999948</v>
       </c>
     </row>
     <row r="12">
@@ -242,55 +242,55 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C12">
         <v>0.18000000000000002</v>
       </c>
       <c r="D12">
-        <v>205.89849999999916</v>
+        <v>286.04960000000017</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.18000000000000002</v>
       </c>
       <c r="D13">
-        <v>244.8861333333318</v>
+        <v>250.08947999999913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.18000000000000002</v>
       </c>
       <c r="D14">
-        <v>278.81135999999958</v>
+        <v>279.55231999999921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>2.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C15">
         <v>0.18000000000000002</v>
       </c>
       <c r="D15">
-        <v>213.83573333333311</v>
+        <v>205.89849999999916</v>
       </c>
     </row>
     <row r="16">
@@ -298,13 +298,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B16">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C16">
         <v>0.18000000000000002</v>
       </c>
       <c r="D16">
-        <v>278.71112000000193</v>
+        <v>244.8861333333318</v>
       </c>
     </row>
     <row r="17">
@@ -312,55 +312,55 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B17">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C17">
         <v>0.18000000000000002</v>
       </c>
       <c r="D17">
-        <v>276.87100000000089</v>
+        <v>278.81135999999958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C18">
         <v>0.18000000000000002</v>
       </c>
       <c r="D18">
-        <v>278.10727999999904</v>
+        <v>213.83573333333311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.18000000000000002</v>
       </c>
       <c r="D19">
-        <v>275.18951800000252</v>
+        <v>278.71112000000193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>2.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C20">
         <v>0.18000000000000002</v>
       </c>
       <c r="D20">
-        <v>221.94415999999683</v>
+        <v>276.87100000000089</v>
       </c>
     </row>
     <row r="21">
@@ -368,13 +368,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B21">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C21">
         <v>0.18000000000000002</v>
       </c>
       <c r="D21">
-        <v>241.77446666666714</v>
+        <v>278.10727999999904</v>
       </c>
     </row>
     <row r="22">
@@ -382,55 +382,55 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B22">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C22">
         <v>0.18000000000000002</v>
       </c>
       <c r="D22">
-        <v>275.16684000000254</v>
+        <v>275.18951800000252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B23">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C23">
         <v>0.18000000000000002</v>
       </c>
       <c r="D23">
-        <v>213.6623999999976</v>
+        <v>221.94415999999683</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C24">
         <v>0.18000000000000002</v>
       </c>
       <c r="D24">
-        <v>245.50808000000174</v>
+        <v>241.77446666666714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>2.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C25">
         <v>0.18000000000000002</v>
       </c>
       <c r="D25">
-        <v>220.65199999999999</v>
+        <v>275.16684000000254</v>
       </c>
     </row>
     <row r="26">
@@ -438,55 +438,55 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B26">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C26">
         <v>0.18000000000000002</v>
       </c>
       <c r="D26">
-        <v>219.7318499999987</v>
+        <v>213.6623999999976</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B27">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C27">
         <v>0.18000000000000002</v>
       </c>
       <c r="D27">
-        <v>227.77799999999874</v>
+        <v>245.50808000000174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B28">
-        <v>1.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C28">
         <v>0.18000000000000002</v>
       </c>
       <c r="D28">
-        <v>198.82354285714371</v>
+        <v>220.65199999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B29">
-        <v>2.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C29">
         <v>0.18000000000000002</v>
       </c>
       <c r="D29">
-        <v>218.64533333333293</v>
+        <v>219.7318499999987</v>
       </c>
     </row>
     <row r="30">
@@ -494,60 +494,60 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B30">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C30">
         <v>0.18000000000000002</v>
       </c>
       <c r="D30">
-        <v>199.52384000000097</v>
+        <v>227.77799999999874</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B31">
-        <v>0.10000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C31">
         <v>0.18000000000000002</v>
       </c>
       <c r="D31">
-        <v>199.76067692307686</v>
+        <v>198.82354285714371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B32">
-        <v>1.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0.18000000000000002</v>
       </c>
       <c r="D32">
-        <v>211.73127272727311</v>
+        <v>218.64533333333293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B33">
-        <v>2.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C33">
         <v>0.18000000000000002</v>
       </c>
       <c r="D33">
-        <v>194.63405999999964</v>
+        <v>199.52384000000097</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B34">
         <v>0.10000000000000001</v>
@@ -556,12 +556,12 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="D34">
-        <v>198.84165714285731</v>
+        <v>199.76067692307686</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B35">
         <v>1.1000000000000001</v>
@@ -570,20 +570,62 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="D35">
-        <v>197.55696000000114</v>
+        <v>211.73127272727311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>90.099999999999994</v>
+      </c>
+      <c r="B36">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D36">
+        <v>194.63405999999964</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>100.09999999999999</v>
+      </c>
+      <c r="B37">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D37">
+        <v>198.84165714285731</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>100.09999999999999</v>
+      </c>
+      <c r="B38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D38">
+        <v>197.55696000000114</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
         <v>110.09999999999999</v>
       </c>
-      <c r="B36">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="C36">
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="D36">
+      <c r="B39">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D39">
         <v>197.90755555555404</v>
       </c>
     </row>
